--- a/Factorial Runs v2/Factorialcombinatins.xlsx
+++ b/Factorial Runs v2/Factorialcombinatins.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="29">
   <si>
     <t>RUN</t>
   </si>
@@ -62,6 +62,9 @@
     <t>c</t>
   </si>
   <si>
+    <t>abc</t>
+  </si>
+  <si>
     <t>d</t>
   </si>
   <si>
@@ -107,17 +110,17 @@
     <t>ac</t>
   </si>
   <si>
-    <t>bd</t>
-  </si>
-  <si>
     <t>cd</t>
+  </si>
+  <si>
+    <t>bc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +140,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -160,12 +170,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,12 +494,12 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
@@ -500,16 +511,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -532,17 +543,17 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -562,7 +573,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -582,7 +593,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -602,7 +613,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -618,11 +629,11 @@
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -642,7 +653,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -658,18 +669,18 @@
         <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -678,98 +689,98 @@
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2" t="s">
+    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -778,11 +789,11 @@
         <v>7</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -802,7 +813,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -818,11 +829,11 @@
         <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -838,7 +849,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.3">
@@ -858,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.3">
